--- a/form_reporting_templates/interim/Form-3CE_interim-multiple.xlsx
+++ b/form_reporting_templates/interim/Form-3CE_interim-multiple.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A491F7-16E4-40AB-B295-D63557F391AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA086C2-5570-4D3C-8E0C-29BC83D4C071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="D/L7RJXD1bM7VSukp9nBPXamnS2mKwuV7VHnNS9bopG+/gy69KSPIxEDp2efAHIwM2oGVTU5uyDQpmk0iVlvLw==" workbookSaltValue="ZXtEfnD7/zBb2FnSisyo4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -117,12 +117,6 @@
     <t>Grid</t>
   </si>
   <si>
-    <t>IOTC form 3-CE | data</t>
-  </si>
-  <si>
-    <t>IOTC form 3-CE | metadata</t>
-  </si>
-  <si>
     <t>Catches by species</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
   </si>
   <si>
     <t>Main stratum</t>
-  </si>
-  <si>
-    <t>3-CE-multiple</t>
   </si>
   <si>
     <t>%</t>
@@ -157,6 +148,15 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>IOTC Form 3CE | data</t>
+  </si>
+  <si>
+    <t>IOTC Form 3CE | metadata</t>
+  </si>
+  <si>
+    <t>3CE-multiple</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1477,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="96" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
@@ -1501,14 +1501,14 @@
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1549,7 +1549,7 @@
       <c r="D8" s="95"/>
       <c r="E8" s="10"/>
       <c r="F8" s="95" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G8" s="95"/>
       <c r="H8" s="11"/>
@@ -1570,12 +1570,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="11"/>
@@ -1592,7 +1592,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="10"/>
@@ -1663,7 +1663,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="64" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="10"/>
@@ -1743,7 +1743,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dcowfDzEpUaWG3cJp5onHd7yWP9R/k0uUdwtdsoSCPb33/EyefRcsLjW/+085lmDY72HZci2yd+svVy90UlW9A==" saltValue="YPXHjCTDITlk0TCOM0o+Qg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1eOAYeaJ5vGqB4Ye5PBCxOtQNG88dv12dYFNQfKRZJkij9Jtv1TgTw01B45OQ9LFyud+IOX6h3yCzFbknWf/6A==" saltValue="2XBqAISpnGrwWpxEfjsOdw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="2" spans="2:119" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="96" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
@@ -1951,7 +1951,7 @@
       <c r="R3" s="100"/>
       <c r="S3" s="39"/>
       <c r="T3" s="102" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U3" s="103"/>
       <c r="V3" s="103"/>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="4" spans="2:119" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="105" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="106"/>
       <c r="D4" s="106"/>
@@ -2080,7 +2080,7 @@
       <c r="Q4" s="109"/>
       <c r="R4" s="110"/>
       <c r="S4" s="80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T4" s="25"/>
       <c r="U4" s="26"/>
@@ -2191,7 +2191,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E5" s="78" t="s">
         <v>25</v>
@@ -2209,13 +2209,13 @@
         <v>22</v>
       </c>
       <c r="J5" s="71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K5" s="72" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="73" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M5" s="69" t="s">
         <v>13</v>
@@ -12319,7 +12319,7 @@
       <c r="DO1048576" s="84"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XOh5SCajubaWDMzp5aPZb7ljOm3uTdFOJJAlV4BHrJAvIKkZIGEw96YS+ZF6hm0Q7f54kM9gM0SrorB1vq4TAg==" saltValue="0r8YWjs+N4Muv91d8gdF3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MO31kxtsozi1Ku9C2MVNBc46tkQ8ibHSRqpvtZilksbWIOUXTwZLf6P+LbryWRM1hugioUJQjhK31KKjiH1yCg==" saltValue="8x0aRWFp5KPQ9u5d5UT79A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="T3:DO3"/>
     <mergeCell ref="B4:F4"/>

--- a/form_reporting_templates/interim/Form-3CE_interim-multiple.xlsx
+++ b/form_reporting_templates/interim/Form-3CE_interim-multiple.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\interim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA086C2-5570-4D3C-8E0C-29BC83D4C071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770AF23E-6C62-489D-9B77-463DBDF642B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="D/L7RJXD1bM7VSukp9nBPXamnS2mKwuV7VHnNS9bopG+/gy69KSPIxEDp2efAHIwM2oGVTU5uyDQpmk0iVlvLw==" workbookSaltValue="ZXtEfnD7/zBb2FnSisyo4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>General information</t>
-  </si>
-  <si>
-    <t>Flag country</t>
   </si>
   <si>
     <t>Reporting year</t>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>3CE-multiple</t>
+  </si>
+  <si>
+    <t>Flag state</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1477,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
@@ -1498,17 +1498,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1524,7 +1524,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -1549,7 +1549,7 @@
       <c r="D8" s="95"/>
       <c r="E8" s="10"/>
       <c r="F8" s="95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="95"/>
       <c r="H8" s="11"/>
@@ -1570,12 +1570,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="11"/>
@@ -1592,7 +1592,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="10"/>
@@ -1603,7 +1603,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="10"/>
@@ -1652,7 +1652,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="10"/>
@@ -1663,7 +1663,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="10"/>
@@ -1674,7 +1674,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="64" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D20" s="44"/>
       <c r="E20" s="10"/>
@@ -1703,7 +1703,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="10"/>
@@ -1743,7 +1743,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1eOAYeaJ5vGqB4Ye5PBCxOtQNG88dv12dYFNQfKRZJkij9Jtv1TgTw01B45OQ9LFyud+IOX6h3yCzFbknWf/6A==" saltValue="2XBqAISpnGrwWpxEfjsOdw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gOzsvss/HZoGuofEWw1IYTOiw/z9FyKlnTUvPtVfeGd0zEvQCv10wQHwBGi8TWKiVojrA1fDp28iXPTDrK1lKQ==" saltValue="ID2t5EUdpHGXPXCw5IW9Tw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1757,7 +1757,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" location="entities" xr:uid="{C0FCC597-9BD9-4C0D-B82C-E95E786F2247}"/>
-    <hyperlink ref="C20" r:id="rId2" location="countries" xr:uid="{586DFF05-9235-4866-B8E6-805BD36FE404}"/>
+    <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{586DFF05-9235-4866-B8E6-805BD36FE404}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="2" spans="2:119" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
@@ -1951,7 +1951,7 @@
       <c r="R3" s="100"/>
       <c r="S3" s="39"/>
       <c r="T3" s="102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U3" s="103"/>
       <c r="V3" s="103"/>
@@ -2055,24 +2055,24 @@
     </row>
     <row r="4" spans="2:119" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="106"/>
       <c r="D4" s="106"/>
       <c r="E4" s="106"/>
       <c r="F4" s="107"/>
       <c r="G4" s="105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="106"/>
       <c r="I4" s="106"/>
       <c r="J4" s="107"/>
       <c r="K4" s="105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="107"/>
       <c r="M4" s="108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4" s="109"/>
       <c r="O4" s="109"/>
@@ -2080,7 +2080,7 @@
       <c r="Q4" s="109"/>
       <c r="R4" s="110"/>
       <c r="S4" s="80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T4" s="25"/>
       <c r="U4" s="26"/>
@@ -2185,58 +2185,58 @@
     </row>
     <row r="5" spans="2:119" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="77" t="s">
-        <v>6</v>
+      <c r="G5" s="74" t="s">
+        <v>19</v>
       </c>
-      <c r="D5" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="74" t="s">
+      <c r="H5" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="I5" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="79" t="s">
-        <v>22</v>
-      </c>
       <c r="J5" s="71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" s="72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" s="73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M5" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="68" t="s">
-        <v>14</v>
-      </c>
       <c r="P5" s="65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R5" s="66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S5" s="81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T5" s="28"/>
       <c r="U5" s="29"/>
